--- a/data/bitacoras.xlsx
+++ b/data/bitacoras.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,54 @@
           <t>asdsad</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:46</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cancha</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sads</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pelea</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Moderada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Rigo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>asdadsasddsa</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
